--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Ror2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +531,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H2">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I2">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J2">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.047572</v>
+        <v>0.1074926666666667</v>
       </c>
       <c r="N2">
-        <v>0.142716</v>
+        <v>0.322478</v>
       </c>
       <c r="O2">
-        <v>0.006780712238476237</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="P2">
-        <v>0.007303529947359069</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="Q2">
-        <v>0.0009271624226666668</v>
+        <v>0.002915523598</v>
       </c>
       <c r="R2">
-        <v>0.008344461804000001</v>
+        <v>0.026239712382</v>
       </c>
       <c r="S2">
-        <v>0.0004811635749516571</v>
+        <v>0.001854571019373946</v>
       </c>
       <c r="T2">
-        <v>0.0005182630460701408</v>
+        <v>0.001854571019373946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +593,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H3">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I3">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J3">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +611,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.461551666666668</v>
+        <v>5.461551666666666</v>
       </c>
       <c r="N3">
         <v>16.384655</v>
       </c>
       <c r="O3">
-        <v>0.7784665397132128</v>
+        <v>0.9806981844221867</v>
       </c>
       <c r="P3">
-        <v>0.838489156574221</v>
+        <v>0.9806981844221866</v>
       </c>
       <c r="Q3">
-        <v>0.1064438214661111</v>
+        <v>0.148133665855</v>
       </c>
       <c r="R3">
-        <v>0.9579943931950002</v>
+        <v>1.333202992695</v>
       </c>
       <c r="S3">
-        <v>0.05524047180519033</v>
+        <v>0.09422815300715216</v>
       </c>
       <c r="T3">
-        <v>0.05949971418136974</v>
+        <v>0.09422815300715216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,55 +646,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.01948966666666667</v>
+        <v>0.255165</v>
       </c>
       <c r="H4">
-        <v>0.05846900000000001</v>
+        <v>0.7654949999999999</v>
       </c>
       <c r="I4">
-        <v>0.07096062449330312</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J4">
-        <v>0.07096062449330312</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.5066585</v>
+        <v>0.1074926666666667</v>
       </c>
       <c r="N4">
-        <v>3.013317</v>
+        <v>0.322478</v>
       </c>
       <c r="O4">
-        <v>0.2147527480483109</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="P4">
-        <v>0.15420731347842</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="Q4">
-        <v>0.0293642719455</v>
+        <v>0.02742836629</v>
       </c>
       <c r="R4">
-        <v>0.176185631673</v>
+        <v>0.24685529661</v>
       </c>
       <c r="S4">
-        <v>0.01523898911316113</v>
+        <v>0.01744724455843944</v>
       </c>
       <c r="T4">
-        <v>0.01094264726586324</v>
+        <v>0.01744724455843943</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +708,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,164 +723,40 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I5">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J5">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.047572</v>
+        <v>5.461551666666666</v>
       </c>
       <c r="N5">
-        <v>0.142716</v>
+        <v>16.384655</v>
       </c>
       <c r="O5">
-        <v>0.006780712238476237</v>
+        <v>0.9806981844221867</v>
       </c>
       <c r="P5">
-        <v>0.007303529947359069</v>
+        <v>0.9806981844221866</v>
       </c>
       <c r="Q5">
-        <v>0.01213870938</v>
+        <v>1.393596831025</v>
       </c>
       <c r="R5">
-        <v>0.10924838442</v>
+        <v>12.542371479225</v>
       </c>
       <c r="S5">
-        <v>0.006299548663524579</v>
+        <v>0.8864700314150344</v>
       </c>
       <c r="T5">
-        <v>0.006785266901288929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.255165</v>
-      </c>
-      <c r="H6">
-        <v>0.7654949999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.9290393755066968</v>
-      </c>
-      <c r="J6">
-        <v>0.9290393755066969</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>5.461551666666668</v>
-      </c>
-      <c r="N6">
-        <v>16.384655</v>
-      </c>
-      <c r="O6">
-        <v>0.7784665397132128</v>
-      </c>
-      <c r="P6">
-        <v>0.838489156574221</v>
-      </c>
-      <c r="Q6">
-        <v>1.393596831025</v>
-      </c>
-      <c r="R6">
-        <v>12.542371479225</v>
-      </c>
-      <c r="S6">
-        <v>0.7232260679080224</v>
-      </c>
-      <c r="T6">
-        <v>0.7789894423928513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.255165</v>
-      </c>
-      <c r="H7">
-        <v>0.7654949999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.9290393755066968</v>
-      </c>
-      <c r="J7">
-        <v>0.9290393755066969</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.5066585</v>
-      </c>
-      <c r="N7">
-        <v>3.013317</v>
-      </c>
-      <c r="O7">
-        <v>0.2147527480483109</v>
-      </c>
-      <c r="P7">
-        <v>0.15420731347842</v>
-      </c>
-      <c r="Q7">
-        <v>0.3844465161524999</v>
-      </c>
-      <c r="R7">
-        <v>2.306679096915</v>
-      </c>
-      <c r="S7">
-        <v>0.1995137589351498</v>
-      </c>
-      <c r="T7">
-        <v>0.1432646662125567</v>
+        <v>0.8864700314150343</v>
       </c>
     </row>
   </sheetData>
